--- a/results/mp/logistic/corona/confidence/126/0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,9 +49,6 @@
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -64,52 +61,55 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>good</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>relief</t>
   </si>
   <si>
     <t>join</t>
@@ -121,34 +121,25 @@
     <t>like</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>and</t>
+    <t>increase</t>
   </si>
   <si>
     <t>.</t>
@@ -509,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,10 +508,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -578,13 +569,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,19 +587,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -620,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -649,16 +640,16 @@
         <v>112</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -670,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -678,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3643410852713178</v>
+        <v>0.3546511627906977</v>
       </c>
       <c r="C5">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D5">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -696,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -720,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -728,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3333333333333333</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +769,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2214765100671141</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -796,69 +787,45 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>116</v>
+        <v>310</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L7">
+        <v>30</v>
+      </c>
+      <c r="M7">
+        <v>30</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K7">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L7">
-        <v>31</v>
-      </c>
-      <c r="M7">
-        <v>31</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1416666666666667</v>
-      </c>
-      <c r="C8">
-        <v>51</v>
-      </c>
-      <c r="D8">
-        <v>51</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>309</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -870,21 +837,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8328981723237598</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>319</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>319</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -896,47 +863,47 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8181818181818182</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L10">
+        <v>115</v>
+      </c>
+      <c r="M10">
+        <v>115</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>27</v>
-      </c>
-      <c r="M10">
-        <v>27</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -948,21 +915,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.796875</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L12">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="M12">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -974,12 +941,12 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
         <v>0.7948717948717948</v>
@@ -1005,16 +972,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7830188679245284</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L14">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1026,21 +993,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.78125</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L15">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1052,21 +1019,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7682926829268293</v>
+        <v>0.78125</v>
       </c>
       <c r="L16">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="M16">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1078,21 +1045,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7446808510638298</v>
+        <v>0.7421875</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1104,21 +1071,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7394366197183099</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L18">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1130,21 +1097,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6875</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1156,21 +1123,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6511627906976745</v>
+        <v>0.7</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1187,16 +1154,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6507936507936508</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1208,21 +1175,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6294117647058823</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1234,21 +1201,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.625</v>
+        <v>0.65</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1260,21 +1227,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5851063829787234</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L24">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="M24">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1286,21 +1253,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>39</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5774058577405857</v>
+        <v>0.5523012552301255</v>
       </c>
       <c r="L25">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M25">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1312,21 +1279,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5692307692307692</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1338,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5600000000000001</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1364,21 +1331,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5457627118644067</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L28">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1390,21 +1357,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>134</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.5142857142857142</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1416,21 +1383,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4831460674157304</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1442,85 +1409,33 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.02418682235195997</v>
+        <v>0.005018065034122842</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>0.64</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0.36</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32">
-        <v>0.0112739571589628</v>
-      </c>
-      <c r="L32">
-        <v>30</v>
-      </c>
-      <c r="M32">
-        <v>42</v>
-      </c>
-      <c r="N32">
-        <v>0.71</v>
-      </c>
-      <c r="O32">
-        <v>0.29</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K33">
-        <v>0.005221932114882507</v>
-      </c>
-      <c r="L33">
-        <v>26</v>
-      </c>
-      <c r="M33">
-        <v>43</v>
-      </c>
-      <c r="N33">
-        <v>0.6</v>
-      </c>
-      <c r="O33">
-        <v>0.4</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>4953</v>
+        <v>4957</v>
       </c>
     </row>
   </sheetData>
